--- a/planning_2014-2015.xlsx
+++ b/planning_2014-2015.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Fondamentaux Java + Tests Unitaires + Eléments d'architecture logicielle + Maven</t>
-  </si>
-  <si>
-    <t>Rappels SQL et Hibernate</t>
   </si>
   <si>
     <t>Java EE Stack EJB et Web Services + Frameworks Web Services</t>
@@ -82,20 +79,26 @@
     <t>JSP, JSTL, JSF (JavaEE)</t>
   </si>
   <si>
-    <t>JAW-WS (SOAP) JAX-RS (REST) (JavaEE)</t>
-  </si>
-  <si>
-    <t>JPA, EJB (JavaEE)</t>
-  </si>
-  <si>
     <t>Mot Clés</t>
+  </si>
+  <si>
+    <t>JAX-WS (SOAP) JAX-RS (REST) (JavaEE)</t>
+  </si>
+  <si>
+    <t>JPA, EJB, JMS (JavaEE)</t>
+  </si>
+  <si>
+    <t>rgirodon@sqli.com</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +123,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,10 +195,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,8 +288,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -587,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,6 +611,7 @@
     <col min="2" max="2" width="74.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,10 +622,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -619,10 +637,13 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,7 +653,7 @@
       <c r="B3" s="24"/>
       <c r="C3" s="29"/>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -642,7 +663,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="29"/>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,16 +708,16 @@
         <v>41964</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,7 +727,7 @@
       <c r="B11" s="26"/>
       <c r="C11" s="25"/>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="15"/>
     </row>
@@ -716,10 +737,10 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="15"/>
     </row>
@@ -728,7 +749,7 @@
         <v>41985</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C13" s="29"/>
     </row>
@@ -759,10 +780,10 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -770,11 +791,11 @@
         <v>42020</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -789,10 +810,10 @@
         <v>42034</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -828,7 +849,10 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C21"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>